--- a/0. Source Layer/components/reports/Sparebanken_Midt-Norge(Broker).xlsx
+++ b/0. Source Layer/components/reports/Sparebanken_Midt-Norge(Broker).xlsx
@@ -507,44 +507,44 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0e83a8d8-b870-4565-b4c5-bdae05f42730</t>
+          <t>8235535e-0873-43ef-91ca-879383cf8377</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Tele Celular Sul Participacoes S.A.</t>
+          <t>Mirtronics Inc.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12/7/1961</t>
+          <t>5/2/1962</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>prototype</t>
+          <t>office</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>667-875-8361</t>
+          <t>556-124-9965</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>sales@telecelularsulparticipacoessa.org</t>
+          <t>info@mirtronicsinc.org</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>344677264347832</t>
+          <t>342217483460264</t>
         </is>
       </c>
       <c r="M2" t="b">
@@ -567,7 +567,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$31,865,672,973.00</t>
+          <t>$2,456,256,694.00</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -578,21 +578,21 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>940197ff-21a7-4911-85ba-123f71ab5779</t>
+          <t>3bb57501-4ef9-479f-9e3d-2dac7c920e39</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CP Ships Ltd.</t>
+          <t>Etruscan Resources Inc.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4/13/1987</t>
+          <t>6/19/1992</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -601,21 +601,21 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>prototype</t>
+          <t>office</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>512-887-1880</t>
+          <t>160-009-9526</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>headquarters@cpshipsltd.org</t>
+          <t>hr@etruscanresourcesinc.org</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -625,20 +625,20 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Banca d italia</t>
+          <t>CTC</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>370027408925316</t>
+          <t>345741020040419</t>
         </is>
       </c>
       <c r="M3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$39,328,553,636.00</t>
+          <t>$63,092,060,033.00</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
